--- a/data/hotels_by_city/Dallas/Dallas_shard_232.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_232.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Denise L</t>
   </si>
   <si>
     <t>05/29/2018</t>
@@ -191,6 +194,9 @@
 Feel outside of property reported immediately which that did not have an incident report. Asked to speak with the manager the manager took a day to get back with me all she said was she can give me a day referred me to insurance company they paid me for a couple nights day of 275 fell on rocks outside of property  went to the hospital was diagnosed with a concussion and a hematoma referred to a neurologist and to come weekly for further CAT scans Jody and Porsche were very rude and disrespectful everything else was pleasant. They expected me to except that one night free stay and 275 although I do have insurance my co-pay does not even cover the 275 therefore they are being sued for neglect and I will never stay and or recommend anybody to stay at that hotel again. Mind you I had a witness to see me fall on the rocks and blacked out. I am recommending that these two individuals Jody and Porsche have either further training or be removed from their positions as they try to be smart with me however they don’t know my background nor who I am or who I know so I have contacted an attorney and have given them every opportunity to make this right almost a month later and it’s still not right I hope and pray in the...Staying at hotel for nearly a month.Feel outside of property reported immediately which that did not have an incident report. Asked to speak with the manager the manager took a day to get back with me all she said was she can give me a day referred me to insurance company they paid me for a couple nights day of 275 fell on rocks outside of property  went to the hospital was diagnosed with a concussion and a hematoma referred to a neurologist and to come weekly for further CAT scans Jody and Porsche were very rude and disrespectful everything else was pleasant. They expected me to except that one night free stay and 275 although I do have insurance my co-pay does not even cover the 275 therefore they are being sued for neglect and I will never stay and or recommend anybody to stay at that hotel again. Mind you I had a witness to see me fall on the rocks and blacked out. I am recommending that these two individuals Jody and Porsche have either further training or be removed from their positions as they try to be smart with me however they don’t know my background nor who I am or who I know so I have contacted an attorney and have given them every opportunity to make this right almost a month later and it’s still not right I hope and pray in the further future that no one falls or gets injured at the property because you will receive no kind of remorse especially from Porsche who is assistant manager and Jody who claims to be the manager. The funny part about this is I left town for a few weeks came back state as the other extended stay around the corner from me and they would not except me because I am a liabilityMore</t>
   </si>
   <si>
+    <t>Celerina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r551975541-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
     <t>Great place ! Awesome customer service ! Since my recent review on priceline.com I received my extra towels with no hesitation. ☺️ Nice area to stay the night or the week in my case. Surrounded by any food you can think of, easy access to the highway. More</t>
   </si>
   <si>
+    <t>ksufan88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r562579232-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
     <t>We stayed here for only one night. The room was very spacious with a sofa, TV, desk and kitchenette. The TV had 40+ channels including Showtime, and the bed was comfortable. The breakfast was limited with mainly grab and go items (coffee and tea, instant oatmeal, chocolate mini-muffins and breakfast bars). We liked the location since it was near a large shopping area that included a Target and several popular restaurants.More</t>
   </si>
   <si>
+    <t>Kathy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r561635737-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>We had not stayed at an Extended Stay before. Surprised that kitchen had no amenities or coffee pot. They could be requested from the desk and coffee was available in a.m. in lobby. Free breakfast means - grab a pre-packed muffin and serve yourself coffee. Not our definition of a breakfast.  Linens could be upgraded but location was good and a/c worked well.More</t>
   </si>
   <si>
+    <t>Jboss90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r560459389-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
     <t>The Staff is great. The Manager is very kind, always speaks her staff is a great reflection of who she is a leader. They all have great customer service. Best place ever.  I also love the housekeeper tiffany and Robyn who always show respect always listens if you have problems no need to complain. Also the maintenance person got me a screen to my window the next day. Robyn did a great job checking me in and cleaning my room. Ms Porsche and her staff has done nothing but treated me with great dignity and respect.  I think Ms Porshe is a great manager she takes no drama off trouble makers which makes my stay here safe and greatMore</t>
   </si>
   <si>
+    <t>Natasja S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r558695949-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
   </si>
   <si>
     <t>This room, with all the extra's like a full kitchen is truly amazing. Its very clean, the staff is very friendly and very helpfull. We stayed 2 nights longer then first expected and there was no problem at all with us booking through Hotels.com and staying in the same room !More</t>
+  </si>
+  <si>
+    <t>Mary Beth B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r558405104-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -355,6 +376,9 @@
 When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed....Awful from the moment I arrived.  I booked on-line and arrived to the fire alarm going off.  Someone had a cooking accident on the first floor and the male clerk was trying to control the situation.  I told him to tend to the event at hand and I would wait.  Finally one alarm was silenced while the second was going off but less obnoxious.  I felt sorry for the clerk and extended my full patience.Upon the situation being under control, I checked in.  No apologies were extended but I chalked that up to stress.  Clerk stated that was the second alarm of the week and the other hotel he works at in the area had a dryer issue, so it was his third alarm of the week.  When I went to my room, I had work to finish.  I set up at the desk.  I saw the desk chair material was severely stained, so I pulled a pillow out of the closet and uncomfortably sat on that to meet my work deadlines.When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed.  The bed had hair and spots.  I called down to the desk and now spoke to a female clerk as the original male left for the day.  I was told she would check for a room and would call me back.  I did not receive a call back.  I found a clerk and what seemed to be a training clerk viewing the room next to mine.  I asked if they were checking for me.  They stated that they were completing a couple of tasks and I should go to the desk downstairs.  I grabbed my luggage and waited at the desk.  They were checking that room for me, it seems.  I was given a new key, no apology, and no offer to assist with my bags.I arrived to the room and the key did not work.  I gave up and went back downstairs.  I was not offered any assistance, apology, or kind words.  I received a refund and stated someone would probably call the next day.  I have never received a call or apology.If I have a choice, I will not pick this hotel.  If I don't have a choice, I will rent a car and sleep in that.  This is the worst experience I have had in this country and second worst in the world.  I am not a snobby traveler and chose economic options, however, I will NEVER chose this option.Still no apology!More</t>
   </si>
   <si>
+    <t>Archie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r571397079-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -382,6 +406,9 @@
     <t>close to hospital where i work property was clean room was desent could use better pots and pans but i purchased my own in that i would be here three months quiet but as with all apartments thumping and bumping from upstairs is expected i would recommend to anyone staying in area.More</t>
   </si>
   <si>
+    <t>Keith A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r557266122-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -406,6 +433,9 @@
     <t>For the price, the hotel met every need.  It was clean, safe and in a very convenient location for me.  The breakfast grab and go was very nice.  The work out room only had cardio equipment (wish they had a set of dumbells).More</t>
   </si>
   <si>
+    <t>Debi Lynn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r545097053-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -433,6 +463,9 @@
     <t>We loved the room. Handicapped accessible. Reasonable rates. Pet friendly for our service babies. Friendly staff. Smoking area. Pet area with bags for easy clean up. Kitchen accessories available. Just all around excellent. Didn't want to go home lol...More</t>
   </si>
   <si>
+    <t>francess185</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r543503077-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -460,6 +493,9 @@
     <t>Everything was fine, clean, check in, etc.  but we asked for extra pillows and were told there weren't any? Had a horrible night sleep due to really bad pillows!!!!! Flat, hard and not enough for rest.More</t>
   </si>
   <si>
+    <t>barbaralF7804HP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r540578102-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -484,6 +520,9 @@
     <t>Very nice hotel if you are staying more than a couple nights with a full kitchen, bath, bedroom and desk area. Front desk folks were very friendly and helpful. Very modest breakfast fare but they probably expect many guests to make their own with the kitchens. Overall, enjoyed the experience and would book again if staying any length of time. Very reasonable rates.More</t>
   </si>
   <si>
+    <t>MISSK2780</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r519352283-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -511,6 +550,9 @@
     <t>Booked this hotel over the phone using a BOG certificate because of a horrible experience at one of their KC hotels... Was told I would be getting a "smoking" 1-BDRM Queen Suite the best room they offer. I arrive at the hotel only to be told 1. All their hotels are smoke-free 2. They don't even have suites at their location 3. The reservation agents are contracted out and they always over promise what they don't have. I was really upset but the room they were able to offer me did suffice. The staff was friendly, the pool was okay, and the room was clean. This hotel is right around a bunch of stores, restaurants, and the mallMore</t>
   </si>
   <si>
+    <t>P507QZlisaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r532509464-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -538,6 +580,9 @@
     <t>Wow your customers and make them want to come back to stay with your over the top customer service. Go above and beyond. Make sure that all rooms have working refrigerators, stoves, microwaves and hot water.More</t>
   </si>
   <si>
+    <t>hrbevers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r508392745-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -562,6 +607,9 @@
     <t>Great place to stay. The staff is friendly and helpful and work hard to make you feel at home. I would recommend staying  whether your on vacation or relocating or anything in between. They go out of their way to get you anything you might want or need.  My teenage son loved it there as well.More</t>
   </si>
   <si>
+    <t>Capadethree</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r507431995-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -586,6 +634,9 @@
     <t>Read the reviews, was skeptical at first because they were some negative ones but they must have been the problem because this place is Awesome! No problems, friendly staff quick check in room awesome!More</t>
   </si>
   <si>
+    <t>Fred And Dany H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r505135492-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -610,6 +661,9 @@
     <t>The rooms were nice and the location was great. The site definitely needs to pay more attention to cleanliness. I had to clean the floors in my room and the stairwells were disgusting. This hotel has the ability to be very nice!More</t>
   </si>
   <si>
+    <t>402christier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r504211230-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -634,6 +688,9 @@
     <t>Not a clean hotel, bathroom and Kitchen, we personally cleaned ourselves. Carpet was dirty. Front desk was never around when you tried to restalk your towls. They only do military discounts on certian types of rooms. and expect to pay your full pet deposit even if you checkout earlier than your initial date. Although they did prorate our time just not the pet. More</t>
   </si>
   <si>
+    <t>Y6500IEjennifers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r502973401-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -658,6 +715,9 @@
     <t>My family and I have no complaints about this hotel or the employees. It was very nice loved the room we were in and it was quite. The staff were very friendly and nice they made us feel very welcomed More</t>
   </si>
   <si>
+    <t>caitlyns590</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r495610026-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -685,6 +745,9 @@
     <t>Room layout was good for families, staff is friendly, price is good, grab-and-go breakfast selection is slim and not restocked daily, pool and permimeter area not always kept clean, room location was near elevator, lobby, and workout room so noise was loud during sleeping hours.More</t>
   </si>
   <si>
+    <t>jpenaj3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r495013522-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -707,6 +770,9 @@
   </si>
   <si>
     <t>This hotel is so nice and very accommodating! Coventry was working the front desk and gave us great food recommendations for nearby restaurants as well as a 10% off card for Texas Roadhouse. She made sure we didn't need anything and were satisfied. We even forgot toothpaste and she was able to provide us little pouches. It was amazing! The rooms are very spacious and clean as well. Highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>MissyR118</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r494909180-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -726,6 +792,9 @@
 If you want to see pictures, check out their website.  This is the first time...We loved this place so much, we stayed for another month.  Everyone is so friendly and they go above and beyond to make your stay a great one.  There are few things as stressful as having a flood destroy your house, and even with all the upheaval in our lives right now, coming back to our room with a full kitchen, a pool and a large grassy area next to a lovely little river has made this experience so much better.  You would think after living in a hotel for 7 weeks my kids would be ready to go home, but they have all expressed that they're going to miss this place.  There are so many things within walking distance and Main Event is a short drive away.  This hotel is in the middle of so much, but with the river bordering one side of the property and a sloping hill on the other side, it has the feel of a more secluded, quieter place.  Every single person from the maintenance man to the general manager are committed to making your stay a happy, comfortable one, and it really shows.  Hopefully, my house never gets flooded again.  But if it does, or if we ever have a reason for a staycation in Fort Worth, this is no longer my first choice, but my ONLY choice.  If you want to see pictures, check out their website.  This is the first time in my entire life that I've walked into a hotel room and the room actually looked like the pictures on the website.More</t>
   </si>
   <si>
+    <t>Cathi G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r493052048-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -750,6 +819,9 @@
     <t>This just may be my very first bad review of a hotel. :(. But here it is. Charged $30 each room for an early check in. (Less than an hour) Had 2 rooms, 2 nights.. rooms were clean, but incomplete. Had to beg, and go down to check out dishes etc. (which were dirty, still had grease and food in one of the pans. Sets were in complete) had to really beg for a coffee pot. Then no filters, so it was unusable anyway. (Nothing was delivered to the room) Shower sucked. "Free internet" was not free if you actually wanted decent net. Beds were uncomfortable, couches even worse. No ice machine or bucket. Just 2 trays. (For 8 people) Had to pay for housekeeping. ( wth?!) Grab and go "breakfast" was gone if you didn't get there at the very minute they set it out. Felt like a dystopian future or prison where you have to fight for food and items. Craziness! Checked out, got home, had 3 extra charges on my card. No one knows why.  Never again. For spending over $500 on this hotel..  I could have gotten SO much better.  Lesson learned. More</t>
   </si>
   <si>
+    <t>stephaniewK7255ND</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r492179637-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>Crack pipe found in foldout bed, empty liquor bottle and half eaten corn dog under main bedNo stopper for bathtubRequested sheets for foldout, they gave me 2 top sheetsNo coffee in "grab and go" breakfast at 7:20More</t>
   </si>
   <si>
+    <t>monicaedd78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r489122700-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -801,6 +876,9 @@
     <t>This hotel was absolutely FILTHY!! The beds had urine and blood stains from previous guests. The sheets were not changed from previous guests, the bathroom was grimy and the shower was not cleaned. STAY FAR AWAY FROM THIS PLACE!I've attached 2 pictures below of the stains on the bed and "clean sheets".More</t>
   </si>
   <si>
+    <t>CervezaTejas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r479714412-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -828,6 +906,9 @@
     <t>I was a bit hesitant to stay in any extended stay after reading horror stories about many different hotels in the area. After much research, I took a chance after getting good reports about this one from two coworkers also relocating to Fort Worth. I booked only 2 weeks at first to "test drive" the property. The room was (and remains) clean, it has a good atmosphere, quiet and in a good location for restaurants and shopping. I extended my stay for 2 months based on a good experience with the property and staff. No bugs, no dirty linens. The place is well maintained and kept clean. It isn't the most luxurious or amenity driven hotel, but it sure works for living and working away from home while relocating. Best bang for the buck. I recommend it!More</t>
   </si>
   <si>
+    <t>Dorcia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r474845796-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -852,6 +933,9 @@
     <t>Bed sheets were dirty and the mattress pad was stained and gross. We asked for new sheets to change them ourself. My husband and I stayed here for the first time and won't be recommending or returning again. Thought it was very unpleasant and tacky to pull our own sheets and towels and take to front desk for new ones. The room smelled stale and the carpet was very warn out and dirty.  The bed was uncomfortable and the pillows were dirty and wrinkled upon check in as though the pillows had been slept on. Just not our idea of plush comfort.More</t>
   </si>
   <si>
+    <t>Lana A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r473689885-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>Nice staff, comfy bed. I had an issue with our first room as it smelled like smoke and we have smoke allergies, the staff happily gave us a new room quickly. They have a to go breakfast which was helpful because we had to get on the road early.</t>
   </si>
   <si>
+    <t>shale302</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r470432271-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -885,6 +972,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>1225traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r468548024-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -909,6 +999,9 @@
     <t>The staff was extremely nice and helpful, and this location was perfect for all the attractions. We would definitely stay again. We liked everything except for the Dr. Suess designed interstate system, (a little intimidating if your not used to this.) But overall we had a great time visiting Fort Worth and staying with Extended Stay America.More</t>
   </si>
   <si>
+    <t>clacraw9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r461263864-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1029,9 @@
     <t>I am 5 minutes from my office. I can walk to buy Groceries and clothes at Target. I can walk to Fit for Life for my Workouts. And I can walk to numerous Restaurants and my Bank. Excellent Location! Plus, I can get on I-20, Chisholm Toll Road, I-30, as well as other Highways.More</t>
   </si>
   <si>
+    <t>Juli M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r459853438-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1059,9 @@
     <t>I stayed here for a week for work and was overall pleased.  The first room I was assigned had cooking orders from a previous tenant and the front desk was very courteous and happily upgraded my room.  My upgraded room was wonderful.More</t>
   </si>
   <si>
+    <t>Evelyn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r448592647-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1080,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>maliyatheprincess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r441862496-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1107,9 @@
     <t>James was an excellent help to me. When I moved into this place all of the staff were unfriendly and rude and very unhelpful. My room was infested with fleas that ate me up leaving swollen red bumps all over my body. The maintenance man James overheard my complaints to the unfriendly staff and he graciously volunteered to spray my room with insecticide and he also helped me get approval to change my room. He was such a great help and I wish the rest of the staff could follow his example and be as helpful to guests. This man deserves a promotion and a raise. Maybe maintenance man James could teach the customer service people how to do their jobs more effectively.More</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r392972633-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1137,9 @@
     <t>Let me start by saying I am a seasoned traveler.  I am a travel nurse, I recently stayed at this hotel for almost 3 months.  Not only did the facilities meet my needs (comfortable/clean room with a kitchen), but on an almost daily basis, the staff exceeded expectations.  I was traveling with my little dog Tucker.  I had just got Tucker as a rescue and he is full of energy.  The staff was so patient and kind to Tucker.  In fact, Tucker became the hotel "celebrity".  Everybody knew Tucker.  If staff needed to go into the room to clean or address a maintenance issue while I was gone and Tucker was in his kennel, extra staff would go to play with Tucker so he wouldn't be afraid.  I did have one maintenance issue while staff there (refrigerator wasn't cooling properly), and it was fixed within an hour.  The managers, front desk staff, maintenance team, housekeepers were all excellent.  I can't say enough good things about the place and I can assure you that I would staff there again if I go back to Ft Worth for an assignment.  I also would have no concerns recommending this hotel to my friends or family.More</t>
   </si>
   <si>
+    <t>homingpenguin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r391212282-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1167,9 @@
     <t>This was an excellent stay for my needs. My room was large and clean. Parking and wifi were included. I did have one issue with a noisy group in the grilling area of the parking lot late at night, but Bobby from the front desk handled the issue for me quickly. The hotel is also near a Target and several shops in the immediate area, but due to its location on a side street, road noise or traffic were not issues.Overall, this was an above average hotel in a good location.More</t>
   </si>
   <si>
+    <t>Carol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r387269017-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1194,9 @@
     <t>You could not ask for better service.  The front desk staff gives your requests immediate attention.  Housekeeping is outstanding.  The atmosphere is for the most part quiet and relaxed.  The building and grounds are well maintained.  The pool is always in top shape.   Everyone on staff addresses me by name.  I feel safe and secure.More</t>
   </si>
   <si>
+    <t>asheyrae83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r385945482-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1215,9 @@
     <t>I stayed in room 208 this time and couldn't have been happier. My first time at this location I was in a room on the 1st floor, and I wanted to try to get a room on the 1st floor again. Upon check in there were not any 1st floor rooms avail. I couldn't have been happier though. My room on the 2nd floor was even nicer then the last room I was in. Porscha had noted my requests on my folio prior to check in. Bobby made my ck in so pleasant! He made sure my requests were honored and the process was so fast! Thanks again for everything!More</t>
   </si>
   <si>
+    <t>Brenna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r371429695-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1245,9 @@
     <t>We stayed here for two nights with two adults and one child. It's a good location, and its very quiet. The fridge had not been emptied by the last tenants before us, and there was no remote control for the TV. The floors were not very clean, and we had to use the sleeper couch and it was also pretty dirty. The floor in the bathroom was uneven and it took a really long time for the water to warm up. All in all, it's not a bad place to stay, we must have just arrived on an off day for them. More</t>
   </si>
   <si>
+    <t>Miguel R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r364974428-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1272,9 @@
     <t>This was my first time staying at ESA so, it is not for me.If you are looking to cook your own meals everyday and not go out at all, this is the place for you all to book.The hotel have kitchen utensils on demand, just ask for them, walk or drive to the super target located right behind the hotel and get your groceries for the week. Is you are not the stay in type of guy/ couple don't stay here.More</t>
   </si>
   <si>
+    <t>Crippledshark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r364359760-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1299,9 @@
     <t>Originally we only expected to stay for 2-3 weeks but as most already know or will soon find out, the housing market (both rental and buying) is "red hot" right now. So we found ourselves looking at 6-8 weeks by the time we finally found a rental. We would not have made it that long if it was for the entire staff. I mean everyone who works there went way out of their way to accommodate us. James the maintenance dude became my friend, he helped me with my dog, physical needs (I am disabled) and all types of just good old fashioned friendship. Porsha (sp?) and Jeffrey and Bobby and James and Desire and Shelley or Windy (I can't remember everyone) and even the housekeeper swept up our dogs shedding coat. Listen, I don't want to get emotional here but if you need a home away from home the people at Extended Stay will bust their tails to make that happen.More</t>
   </si>
   <si>
+    <t>Geizelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r347203209-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t>Jesse was very courteous and timely. When I asked him to fix a FEW things in my room. He immediately filled out a work order and said he would get right to it and he did just THAT. He was at my room a few minutes later and EVERYTHING that needed repair, he had it done quickly. I rate his work and response a 10!!! More</t>
   </si>
   <si>
+    <t>LynnFromAustin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r343880597-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1359,9 @@
     <t>I always worry when I go to a hotel that I don't know but this one made me relax.  The staff was great, the place was clean and quiet. The kitchen quite adequate even though I didn't use it.   Unlike another reviewer, I did not smell food odors from other rooms coming into my room.  I love the hardwood floors and the heat/ac worked GREAT!  Yes, there is not an extensive breakfast, but they tell you that before you book.  All I usually have time for is something quick and they had that and instant oatmeal.  I would recommend this place.More</t>
   </si>
   <si>
+    <t>Lee_zell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r332278010-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1387,9 @@
   </si>
   <si>
     <t>What a pleasant surprise. I booked this hotel through hotwire and from my experience with this hotel it was great.I saw the name extended stay when I booked it and I got scared. From my experience with extended stay, I thought I was going to see pimps and other strange things in the hallways.This hotel was awesome. I told the front desk personal JEFF about my concerns about staying here and he assured me I had nothing to worry about. The room was nice and clean. The bed was comfortable. My only problem is the hot water wasn't really hot enough but ok to shower. I would give this stay and staff a 5 star. Just great. More</t>
+  </si>
+  <si>
+    <t>SmilingBig</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r326776899-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -1786,43 +1921,47 @@
       <c r="A2" t="n">
         <v>36804</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>22409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1834,56 +1973,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36804</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1895,56 +2038,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36804</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1962,56 +2109,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36804</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>22635</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2033,56 +2184,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36804</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2094,56 +2249,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36804</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>49712</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2155,56 +2314,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36804</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>30667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2222,56 +2385,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36804</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2293,56 +2460,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36804</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>35657</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2364,56 +2535,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36804</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2425,56 +2600,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36804</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136251</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2496,56 +2675,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36804</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2567,56 +2750,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36804</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>30214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2634,56 +2821,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36804</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136253</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2705,56 +2896,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36804</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2766,56 +2961,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36804</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2837,56 +3036,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36804</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136256</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2908,56 +3111,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36804</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136257</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2979,56 +3186,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36804</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3050,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36804</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3121,56 +3336,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36804</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3182,56 +3401,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36804</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3249,56 +3472,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36804</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136262</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3320,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36804</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3391,56 +3622,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36804</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -3458,56 +3693,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36804</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136265</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3523,56 +3762,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36804</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3588,56 +3831,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36804</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>11572</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3651,50 +3898,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36804</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136267</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3708,50 +3959,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36804</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3769,56 +4024,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36804</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136269</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3836,56 +4095,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36804</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>65271</v>
+      </c>
+      <c r="C33" t="s">
+        <v>333</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O33" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3903,56 +4166,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36804</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>35158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3970,50 +4237,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36804</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136270</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4025,56 +4296,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="X35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36804</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>5101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="O36" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4090,56 +4365,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36804</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136271</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4157,56 +4436,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36804</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>24231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="O38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4218,56 +4501,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="X38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36804</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="O39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4287,50 +4574,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36804</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4342,56 +4633,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="X40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36804</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>105741</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="K41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4403,56 +4698,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36804</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136274</v>
+      </c>
+      <c r="C42" t="s">
+        <v>414</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4468,56 +4767,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36804</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136275</v>
+      </c>
+      <c r="C43" t="s">
+        <v>423</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="K43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="L43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4529,56 +4832,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="X43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36804</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136276</v>
+      </c>
+      <c r="C44" t="s">
+        <v>433</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="L44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4596,56 +4903,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="X44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="Y44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36804</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136277</v>
+      </c>
+      <c r="C45" t="s">
+        <v>443</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="K45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4657,56 +4968,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="X45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36804</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>453</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="L46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4722,13 +5037,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="X46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="Y46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_232.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_232.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,181 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Denise L</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r606058114-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109116</t>
+  </si>
+  <si>
+    <t>606058114</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Front Desk Employee -- Tiffany Ewell</t>
+  </si>
+  <si>
+    <t>Tiffany Ewell is one of the finest &amp; most professional people I have ever met. She goes way above &amp; beyond her duties I am sure. She has always helped me, and I have been living here for 1 Year 6 Months. I think I know what I am talking about. As the President of Tri-Level Building Partners, LLC, I believe I am a very good judge of character and persons traits. I am grateful for Tiffany and I thought it was time I let everyone know once again!Clark CrawfordMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>Tiffany Ewell is one of the finest &amp; most professional people I have ever met. She goes way above &amp; beyond her duties I am sure. She has always helped me, and I have been living here for 1 Year 6 Months. I think I know what I am talking about. As the President of Tri-Level Building Partners, LLC, I believe I am a very good judge of character and persons traits. I am grateful for Tiffany and I thought it was time I let everyone know once again!Clark CrawfordMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r551975541-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>551975541</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place ! </t>
+  </si>
+  <si>
+    <t>Great place ! Awesome customer service ! Since my recent review on priceline.com I received my extra towels with no hesitation. ️ Nice area to stay the night or the week in my case. Surrounded by any food you can think of, easy access to the highway. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Great place ! Awesome customer service ! Since my recent review on priceline.com I received my extra towels with no hesitation. ️ Nice area to stay the night or the week in my case. Surrounded by any food you can think of, easy access to the highway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r605474600-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>605474600</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Front Desk</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel for a few months and Tiffany at the front Desk made me and my family feel so welcome since the first day. Pleasant and always smiling when you see her. Ready to accommodate any of your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>I had to stay at this hotel for a few months and Tiffany at the front Desk made me and my family feel so welcome since the first day. Pleasant and always smiling when you see her. Ready to accommodate any of your needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r603415141-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>603415141</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nothing seems to work</t>
+  </si>
+  <si>
+    <t>We had to change rooms because we were given the smallest room and apparently the only one without a dishwasher. First we were told that they would replace our dishes daily, then told we had to do our own. We changed rooms. Then, on Friday, after the move and after a “trial run” on the dishwasher, we find out that it makes the right noise, but doesn’t clean anything. No water to it. So! Again, I attempted to hand wash the dishes (I don’t even do this at home, y’all! I hate dishes!) only to discover that the sink leaks all over the floor (and my feet) while doing this. So! Now it’s Monday. Still nothing fixed. Still no dishwasher. Still pouring water on my feet. And the light over the stove doesn’t work. We were missing a shelf....goodness, I think they need to hire some help to get this done. Probably won’t be back here again. Too many problems in what they proudly call a “model hotel”....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We had to change rooms because we were given the smallest room and apparently the only one without a dishwasher. First we were told that they would replace our dishes daily, then told we had to do our own. We changed rooms. Then, on Friday, after the move and after a “trial run” on the dishwasher, we find out that it makes the right noise, but doesn’t clean anything. No water to it. So! Again, I attempted to hand wash the dishes (I don’t even do this at home, y’all! I hate dishes!) only to discover that the sink leaks all over the floor (and my feet) while doing this. So! Now it’s Monday. Still nothing fixed. Still no dishwasher. Still pouring water on my feet. And the light over the stove doesn’t work. We were missing a shelf....goodness, I think they need to hire some help to get this done. Probably won’t be back here again. Too many problems in what they proudly call a “model hotel”....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r588186903-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>588186903</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Not 2.5 hotel</t>
+  </si>
+  <si>
+    <t>Overall, my room clean and in order, however, the bed and pillows were  uncomfortable, if you want ice you have to make it in your freezer in your room, the pool was closed until "the city came out to inspect" (I saw no other hotel having this issue) and "grab and go" breakfast should not be listed as breakfast. Coffee only in the lobby during breakfast- none in room. Although the front desk personnel were friendly, they appeared to not be able to help guests with any issues at hand. I did not pay much for the room, and you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Overall, my room clean and in order, however, the bed and pillows were  uncomfortable, if you want ice you have to make it in your freezer in your room, the pool was closed until "the city came out to inspect" (I saw no other hotel having this issue) and "grab and go" breakfast should not be listed as breakfast. Coffee only in the lobby during breakfast- none in room. Although the front desk personnel were friendly, they appeared to not be able to help guests with any issues at hand. I did not pay much for the room, and you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r586770131-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586770131</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Terrible! Got my money back and left.</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of location and the fact that it had a pool for my 5 kids while in town visiting friends. Upon arrival, I walked into my room and it smelled overwhelmingly like animals and had animal hair ALL over the floor. Yuck! I requested a room change which I was told would happen later that afternoon. I showed up several hours later, with all my kids in swimsuits ready to swim in the 100 degree weather and when I approached the front desk, not only did she tell me the pool wouldn't be open at all during my stay because it was pending approval from the city, but my room hadn't been changed or cleaned yet and the new front desk lady had no idea what I was talking about. I explained to her that I'm highly allergic to animals and her only offer was to send someone back in to clean the room. When I mentioned my disappointment in the pool being closed and me not being notified ahead of time about that, she offered to call another Extended Stay location to see if we could use their pool. When she called them and explained our situation, they refused to let us come use their pool and stated it was only for THEIR guests. I took a refund and found another hotel that was clean and had a working pool. Thanks for the stress, Extended...I chose this hotel because of location and the fact that it had a pool for my 5 kids while in town visiting friends. Upon arrival, I walked into my room and it smelled overwhelmingly like animals and had animal hair ALL over the floor. Yuck! I requested a room change which I was told would happen later that afternoon. I showed up several hours later, with all my kids in swimsuits ready to swim in the 100 degree weather and when I approached the front desk, not only did she tell me the pool wouldn't be open at all during my stay because it was pending approval from the city, but my room hadn't been changed or cleaned yet and the new front desk lady had no idea what I was talking about. I explained to her that I'm highly allergic to animals and her only offer was to send someone back in to clean the room. When I mentioned my disappointment in the pool being closed and me not being notified ahead of time about that, she offered to call another Extended Stay location to see if we could use their pool. When she called them and explained our situation, they refused to let us come use their pool and stated it was only for THEIR guests. I took a refund and found another hotel that was clean and had a working pool. Thanks for the stress, Extended Stay, while traveling solo with my 5 children!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of location and the fact that it had a pool for my 5 kids while in town visiting friends. Upon arrival, I walked into my room and it smelled overwhelmingly like animals and had animal hair ALL over the floor. Yuck! I requested a room change which I was told would happen later that afternoon. I showed up several hours later, with all my kids in swimsuits ready to swim in the 100 degree weather and when I approached the front desk, not only did she tell me the pool wouldn't be open at all during my stay because it was pending approval from the city, but my room hadn't been changed or cleaned yet and the new front desk lady had no idea what I was talking about. I explained to her that I'm highly allergic to animals and her only offer was to send someone back in to clean the room. When I mentioned my disappointment in the pool being closed and me not being notified ahead of time about that, she offered to call another Extended Stay location to see if we could use their pool. When she called them and explained our situation, they refused to let us come use their pool and stated it was only for THEIR guests. I took a refund and found another hotel that was clean and had a working pool. Thanks for the stress, Extended...I chose this hotel because of location and the fact that it had a pool for my 5 kids while in town visiting friends. Upon arrival, I walked into my room and it smelled overwhelmingly like animals and had animal hair ALL over the floor. Yuck! I requested a room change which I was told would happen later that afternoon. I showed up several hours later, with all my kids in swimsuits ready to swim in the 100 degree weather and when I approached the front desk, not only did she tell me the pool wouldn't be open at all during my stay because it was pending approval from the city, but my room hadn't been changed or cleaned yet and the new front desk lady had no idea what I was talking about. I explained to her that I'm highly allergic to animals and her only offer was to send someone back in to clean the room. When I mentioned my disappointment in the pool being closed and me not being notified ahead of time about that, she offered to call another Extended Stay location to see if we could use their pool. When she called them and explained our situation, they refused to let us come use their pool and stated it was only for THEIR guests. I took a refund and found another hotel that was clean and had a working pool. Thanks for the stress, Extended Stay, while traveling solo with my 5 children!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r571584255-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109116</t>
   </si>
   <si>
     <t>571584255</t>
@@ -194,42 +356,6 @@
 Feel outside of property reported immediately which that did not have an incident report. Asked to speak with the manager the manager took a day to get back with me all she said was she can give me a day referred me to insurance company they paid me for a couple nights day of 275 fell on rocks outside of property  went to the hospital was diagnosed with a concussion and a hematoma referred to a neurologist and to come weekly for further CAT scans Jody and Porsche were very rude and disrespectful everything else was pleasant. They expected me to except that one night free stay and 275 although I do have insurance my co-pay does not even cover the 275 therefore they are being sued for neglect and I will never stay and or recommend anybody to stay at that hotel again. Mind you I had a witness to see me fall on the rocks and blacked out. I am recommending that these two individuals Jody and Porsche have either further training or be removed from their positions as they try to be smart with me however they don’t know my background nor who I am or who I know so I have contacted an attorney and have given them every opportunity to make this right almost a month later and it’s still not right I hope and pray in the...Staying at hotel for nearly a month.Feel outside of property reported immediately which that did not have an incident report. Asked to speak with the manager the manager took a day to get back with me all she said was she can give me a day referred me to insurance company they paid me for a couple nights day of 275 fell on rocks outside of property  went to the hospital was diagnosed with a concussion and a hematoma referred to a neurologist and to come weekly for further CAT scans Jody and Porsche were very rude and disrespectful everything else was pleasant. They expected me to except that one night free stay and 275 although I do have insurance my co-pay does not even cover the 275 therefore they are being sued for neglect and I will never stay and or recommend anybody to stay at that hotel again. Mind you I had a witness to see me fall on the rocks and blacked out. I am recommending that these two individuals Jody and Porsche have either further training or be removed from their positions as they try to be smart with me however they don’t know my background nor who I am or who I know so I have contacted an attorney and have given them every opportunity to make this right almost a month later and it’s still not right I hope and pray in the further future that no one falls or gets injured at the property because you will receive no kind of remorse especially from Porsche who is assistant manager and Jody who claims to be the manager. The funny part about this is I left town for a few weeks came back state as the other extended stay around the corner from me and they would not except me because I am a liabilityMore</t>
   </si>
   <si>
-    <t>Celerina R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r551975541-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>551975541</t>
-  </si>
-  <si>
-    <t>01/06/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great place ! </t>
-  </si>
-  <si>
-    <t>Great place ! Awesome customer service ! Since my recent review on priceline.com I received my extra towels with no hesitation. ☺️ Nice area to stay the night or the week in my case. Surrounded by any food you can think of, easy access to the highway. MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded January 7, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 7, 2018</t>
-  </si>
-  <si>
-    <t>Great place ! Awesome customer service ! Since my recent review on priceline.com I received my extra towels with no hesitation. ☺️ Nice area to stay the night or the week in my case. Surrounded by any food you can think of, easy access to the highway. More</t>
-  </si>
-  <si>
-    <t>ksufan88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r562579232-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -257,9 +383,6 @@
     <t>We stayed here for only one night. The room was very spacious with a sofa, TV, desk and kitchenette. The TV had 40+ channels including Showtime, and the bed was comfortable. The breakfast was limited with mainly grab and go items (coffee and tea, instant oatmeal, chocolate mini-muffins and breakfast bars). We liked the location since it was near a large shopping area that included a Target and several popular restaurants.More</t>
   </si>
   <si>
-    <t>Kathy F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r561635737-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -284,9 +407,6 @@
     <t>We had not stayed at an Extended Stay before. Surprised that kitchen had no amenities or coffee pot. They could be requested from the desk and coffee was available in a.m. in lobby. Free breakfast means - grab a pre-packed muffin and serve yourself coffee. Not our definition of a breakfast.  Linens could be upgraded but location was good and a/c worked well.More</t>
   </si>
   <si>
-    <t>Jboss90</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r560459389-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -311,9 +431,6 @@
     <t>The Staff is great. The Manager is very kind, always speaks her staff is a great reflection of who she is a leader. They all have great customer service. Best place ever.  I also love the housekeeper tiffany and Robyn who always show respect always listens if you have problems no need to complain. Also the maintenance person got me a screen to my window the next day. Robyn did a great job checking me in and cleaning my room. Ms Porsche and her staff has done nothing but treated me with great dignity and respect.  I think Ms Porshe is a great manager she takes no drama off trouble makers which makes my stay here safe and greatMore</t>
   </si>
   <si>
-    <t>Natasja S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r558695949-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,9 +453,6 @@
   </si>
   <si>
     <t>This room, with all the extra's like a full kitchen is truly amazing. Its very clean, the staff is very friendly and very helpfull. We stayed 2 nights longer then first expected and there was no problem at all with us booking through Hotels.com and staying in the same room !More</t>
-  </si>
-  <si>
-    <t>Mary Beth B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r558405104-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -360,9 +474,6 @@
 When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed....Awful from the moment I arrived.  I booked on-line and arrived to the fire alarm going off.  Someone had a cooking accident on the first floor and the male clerk was trying to control the situation.  I told him to tend to the event at hand and I would wait.  Finally one alarm was silenced while the second was going off but less obnoxious.  I felt sorry for the clerk and extended my full patience.Upon the situation being under control, I checked in.  No apologies were extended but I chalked that up to stress.  Clerk stated that was the second alarm of the week and the other hotel he works at in the area had a dryer issue, so it was his third alarm of the week.  When I went to my room, I had work to finish.  I set up at the desk.  I saw the desk chair material was severely stained, so I pulled a pillow out of the closet and uncomfortably sat on that to meet my work deadlines.When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed.  The bed had hair and spots.  I called down to the desk and now spoke to a female clerk as the original male left for the day.  I was told she would check for a room and would call me back.  I did not receive a call back.  I found a clerk and what seemed to be a training clerk viewing the room next to mine.  I asked if they were checking for me.  They stated that they were completing a couple of tasks and I should go to the desk downstairs.  I grabbed my luggage and waited at the desk.  They were checking that room for me, it seems.  I was given a new key, no apology, and no offer to assist with my bags.I arrived to the room and the key did not work.  I gave up and went back downstairs.  I was not offered any assistance, apology, or kind words.  I received a refund and stated someone would probably call the next day.  I have never received a call or apology.If I have a choice, I will not pick this hotel.  If I don't have a choice, I will rent a car and sleep in that.  This is the worst experience I have had in this country and second worst in the world.  I am not a snobby traveler and chose economic options, however, I will NEVER chose this option.Still no apology!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Fort Worth - Southwest, responded to this reviewResponded February 7, 2018</t>
   </si>
   <si>
@@ -376,9 +487,6 @@
 When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed....Awful from the moment I arrived.  I booked on-line and arrived to the fire alarm going off.  Someone had a cooking accident on the first floor and the male clerk was trying to control the situation.  I told him to tend to the event at hand and I would wait.  Finally one alarm was silenced while the second was going off but less obnoxious.  I felt sorry for the clerk and extended my full patience.Upon the situation being under control, I checked in.  No apologies were extended but I chalked that up to stress.  Clerk stated that was the second alarm of the week and the other hotel he works at in the area had a dryer issue, so it was his third alarm of the week.  When I went to my room, I had work to finish.  I set up at the desk.  I saw the desk chair material was severely stained, so I pulled a pillow out of the closet and uncomfortably sat on that to meet my work deadlines.When I went to use the washroom, I noticed the towel had a hair on it, so I threw it to the floor and went to use the second towel to find a longer hair!!!  I threw that one to the floor and found another one with a stain.  This was not a clean stain as it felt crunchy.  At this time I checked out the bed.  The bed had hair and spots.  I called down to the desk and now spoke to a female clerk as the original male left for the day.  I was told she would check for a room and would call me back.  I did not receive a call back.  I found a clerk and what seemed to be a training clerk viewing the room next to mine.  I asked if they were checking for me.  They stated that they were completing a couple of tasks and I should go to the desk downstairs.  I grabbed my luggage and waited at the desk.  They were checking that room for me, it seems.  I was given a new key, no apology, and no offer to assist with my bags.I arrived to the room and the key did not work.  I gave up and went back downstairs.  I was not offered any assistance, apology, or kind words.  I received a refund and stated someone would probably call the next day.  I have never received a call or apology.If I have a choice, I will not pick this hotel.  If I don't have a choice, I will rent a car and sleep in that.  This is the worst experience I have had in this country and second worst in the world.  I am not a snobby traveler and chose economic options, however, I will NEVER chose this option.Still no apology!More</t>
   </si>
   <si>
-    <t>Archie L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r571397079-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -406,9 +514,6 @@
     <t>close to hospital where i work property was clean room was desent could use better pots and pans but i purchased my own in that i would be here three months quiet but as with all apartments thumping and bumping from upstairs is expected i would recommend to anyone staying in area.More</t>
   </si>
   <si>
-    <t>Keith A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r557266122-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -433,9 +538,6 @@
     <t>For the price, the hotel met every need.  It was clean, safe and in a very convenient location for me.  The breakfast grab and go was very nice.  The work out room only had cardio equipment (wish they had a set of dumbells).More</t>
   </si>
   <si>
-    <t>Debi Lynn S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r545097053-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -463,9 +565,6 @@
     <t>We loved the room. Handicapped accessible. Reasonable rates. Pet friendly for our service babies. Friendly staff. Smoking area. Pet area with bags for easy clean up. Kitchen accessories available. Just all around excellent. Didn't want to go home lol...More</t>
   </si>
   <si>
-    <t>francess185</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r543503077-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -493,9 +592,6 @@
     <t>Everything was fine, clean, check in, etc.  but we asked for extra pillows and were told there weren't any? Had a horrible night sleep due to really bad pillows!!!!! Flat, hard and not enough for rest.More</t>
   </si>
   <si>
-    <t>barbaralF7804HP</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r540578102-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -520,9 +616,6 @@
     <t>Very nice hotel if you are staying more than a couple nights with a full kitchen, bath, bedroom and desk area. Front desk folks were very friendly and helpful. Very modest breakfast fare but they probably expect many guests to make their own with the kitchens. Overall, enjoyed the experience and would book again if staying any length of time. Very reasonable rates.More</t>
   </si>
   <si>
-    <t>MISSK2780</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r519352283-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,9 +643,6 @@
     <t>Booked this hotel over the phone using a BOG certificate because of a horrible experience at one of their KC hotels... Was told I would be getting a "smoking" 1-BDRM Queen Suite the best room they offer. I arrive at the hotel only to be told 1. All their hotels are smoke-free 2. They don't even have suites at their location 3. The reservation agents are contracted out and they always over promise what they don't have. I was really upset but the room they were able to offer me did suffice. The staff was friendly, the pool was okay, and the room was clean. This hotel is right around a bunch of stores, restaurants, and the mallMore</t>
   </si>
   <si>
-    <t>P507QZlisaf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r532509464-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -580,9 +670,6 @@
     <t>Wow your customers and make them want to come back to stay with your over the top customer service. Go above and beyond. Make sure that all rooms have working refrigerators, stoves, microwaves and hot water.More</t>
   </si>
   <si>
-    <t>hrbevers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r508392745-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -607,9 +694,6 @@
     <t>Great place to stay. The staff is friendly and helpful and work hard to make you feel at home. I would recommend staying  whether your on vacation or relocating or anything in between. They go out of their way to get you anything you might want or need.  My teenage son loved it there as well.More</t>
   </si>
   <si>
-    <t>Capadethree</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r507431995-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -634,9 +718,6 @@
     <t>Read the reviews, was skeptical at first because they were some negative ones but they must have been the problem because this place is Awesome! No problems, friendly staff quick check in room awesome!More</t>
   </si>
   <si>
-    <t>Fred And Dany H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r505135492-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -661,9 +742,6 @@
     <t>The rooms were nice and the location was great. The site definitely needs to pay more attention to cleanliness. I had to clean the floors in my room and the stairwells were disgusting. This hotel has the ability to be very nice!More</t>
   </si>
   <si>
-    <t>402christier</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r504211230-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -688,9 +766,6 @@
     <t>Not a clean hotel, bathroom and Kitchen, we personally cleaned ourselves. Carpet was dirty. Front desk was never around when you tried to restalk your towls. They only do military discounts on certian types of rooms. and expect to pay your full pet deposit even if you checkout earlier than your initial date. Although they did prorate our time just not the pet. More</t>
   </si>
   <si>
-    <t>Y6500IEjennifers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r502973401-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -715,9 +790,6 @@
     <t>My family and I have no complaints about this hotel or the employees. It was very nice loved the room we were in and it was quite. The staff were very friendly and nice they made us feel very welcomed More</t>
   </si>
   <si>
-    <t>caitlyns590</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r495610026-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -745,9 +817,6 @@
     <t>Room layout was good for families, staff is friendly, price is good, grab-and-go breakfast selection is slim and not restocked daily, pool and permimeter area not always kept clean, room location was near elevator, lobby, and workout room so noise was loud during sleeping hours.More</t>
   </si>
   <si>
-    <t>jpenaj3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r495013522-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -770,9 +839,6 @@
   </si>
   <si>
     <t>This hotel is so nice and very accommodating! Coventry was working the front desk and gave us great food recommendations for nearby restaurants as well as a 10% off card for Texas Roadhouse. She made sure we didn't need anything and were satisfied. We even forgot toothpaste and she was able to provide us little pouches. It was amazing! The rooms are very spacious and clean as well. Highly recommend this hotel.More</t>
-  </si>
-  <si>
-    <t>MissyR118</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r494909180-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -792,9 +858,6 @@
 If you want to see pictures, check out their website.  This is the first time...We loved this place so much, we stayed for another month.  Everyone is so friendly and they go above and beyond to make your stay a great one.  There are few things as stressful as having a flood destroy your house, and even with all the upheaval in our lives right now, coming back to our room with a full kitchen, a pool and a large grassy area next to a lovely little river has made this experience so much better.  You would think after living in a hotel for 7 weeks my kids would be ready to go home, but they have all expressed that they're going to miss this place.  There are so many things within walking distance and Main Event is a short drive away.  This hotel is in the middle of so much, but with the river bordering one side of the property and a sloping hill on the other side, it has the feel of a more secluded, quieter place.  Every single person from the maintenance man to the general manager are committed to making your stay a happy, comfortable one, and it really shows.  Hopefully, my house never gets flooded again.  But if it does, or if we ever have a reason for a staycation in Fort Worth, this is no longer my first choice, but my ONLY choice.  If you want to see pictures, check out their website.  This is the first time in my entire life that I've walked into a hotel room and the room actually looked like the pictures on the website.More</t>
   </si>
   <si>
-    <t>Cathi G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r493052048-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -819,9 +882,6 @@
     <t>This just may be my very first bad review of a hotel. :(. But here it is. Charged $30 each room for an early check in. (Less than an hour) Had 2 rooms, 2 nights.. rooms were clean, but incomplete. Had to beg, and go down to check out dishes etc. (which were dirty, still had grease and food in one of the pans. Sets were in complete) had to really beg for a coffee pot. Then no filters, so it was unusable anyway. (Nothing was delivered to the room) Shower sucked. "Free internet" was not free if you actually wanted decent net. Beds were uncomfortable, couches even worse. No ice machine or bucket. Just 2 trays. (For 8 people) Had to pay for housekeeping. ( wth?!) Grab and go "breakfast" was gone if you didn't get there at the very minute they set it out. Felt like a dystopian future or prison where you have to fight for food and items. Craziness! Checked out, got home, had 3 extra charges on my card. No one knows why.  Never again. For spending over $500 on this hotel..  I could have gotten SO much better.  Lesson learned. More</t>
   </si>
   <si>
-    <t>stephaniewK7255ND</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r492179637-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -846,9 +906,6 @@
     <t>Crack pipe found in foldout bed, empty liquor bottle and half eaten corn dog under main bedNo stopper for bathtubRequested sheets for foldout, they gave me 2 top sheetsNo coffee in "grab and go" breakfast at 7:20More</t>
   </si>
   <si>
-    <t>monicaedd78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r489122700-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -876,9 +933,6 @@
     <t>This hotel was absolutely FILTHY!! The beds had urine and blood stains from previous guests. The sheets were not changed from previous guests, the bathroom was grimy and the shower was not cleaned. STAY FAR AWAY FROM THIS PLACE!I've attached 2 pictures below of the stains on the bed and "clean sheets".More</t>
   </si>
   <si>
-    <t>CervezaTejas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r479714412-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -906,9 +960,6 @@
     <t>I was a bit hesitant to stay in any extended stay after reading horror stories about many different hotels in the area. After much research, I took a chance after getting good reports about this one from two coworkers also relocating to Fort Worth. I booked only 2 weeks at first to "test drive" the property. The room was (and remains) clean, it has a good atmosphere, quiet and in a good location for restaurants and shopping. I extended my stay for 2 months based on a good experience with the property and staff. No bugs, no dirty linens. The place is well maintained and kept clean. It isn't the most luxurious or amenity driven hotel, but it sure works for living and working away from home while relocating. Best bang for the buck. I recommend it!More</t>
   </si>
   <si>
-    <t>Dorcia B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r474845796-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -933,9 +984,6 @@
     <t>Bed sheets were dirty and the mattress pad was stained and gross. We asked for new sheets to change them ourself. My husband and I stayed here for the first time and won't be recommending or returning again. Thought it was very unpleasant and tacky to pull our own sheets and towels and take to front desk for new ones. The room smelled stale and the carpet was very warn out and dirty.  The bed was uncomfortable and the pillows were dirty and wrinkled upon check in as though the pillows had been slept on. Just not our idea of plush comfort.More</t>
   </si>
   <si>
-    <t>Lana A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r473689885-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -951,9 +999,6 @@
     <t>Nice staff, comfy bed. I had an issue with our first room as it smelled like smoke and we have smoke allergies, the staff happily gave us a new room quickly. They have a to go breakfast which was helpful because we had to get on the road early.</t>
   </si>
   <si>
-    <t>shale302</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r470432271-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -972,9 +1017,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>1225traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r468548024-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1041,6 @@
     <t>The staff was extremely nice and helpful, and this location was perfect for all the attractions. We would definitely stay again. We liked everything except for the Dr. Suess designed interstate system, (a little intimidating if your not used to this.) But overall we had a great time visiting Fort Worth and staying with Extended Stay America.More</t>
   </si>
   <si>
-    <t>clacraw9</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r461263864-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1029,9 +1068,6 @@
     <t>I am 5 minutes from my office. I can walk to buy Groceries and clothes at Target. I can walk to Fit for Life for my Workouts. And I can walk to numerous Restaurants and my Bank. Excellent Location! Plus, I can get on I-20, Chisholm Toll Road, I-30, as well as other Highways.More</t>
   </si>
   <si>
-    <t>Juli M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r459853438-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1059,9 +1095,6 @@
     <t>I stayed here for a week for work and was overall pleased.  The first room I was assigned had cooking orders from a previous tenant and the front desk was very courteous and happily upgraded my room.  My upgraded room was wonderful.More</t>
   </si>
   <si>
-    <t>Evelyn G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r448592647-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1113,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>maliyatheprincess</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r441862496-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1137,6 @@
     <t>James was an excellent help to me. When I moved into this place all of the staff were unfriendly and rude and very unhelpful. My room was infested with fleas that ate me up leaving swollen red bumps all over my body. The maintenance man James overheard my complaints to the unfriendly staff and he graciously volunteered to spray my room with insecticide and he also helped me get approval to change my room. He was such a great help and I wish the rest of the staff could follow his example and be as helpful to guests. This man deserves a promotion and a raise. Maybe maintenance man James could teach the customer service people how to do their jobs more effectively.More</t>
   </si>
   <si>
-    <t>Joe L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r392972633-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1137,9 +1164,6 @@
     <t>Let me start by saying I am a seasoned traveler.  I am a travel nurse, I recently stayed at this hotel for almost 3 months.  Not only did the facilities meet my needs (comfortable/clean room with a kitchen), but on an almost daily basis, the staff exceeded expectations.  I was traveling with my little dog Tucker.  I had just got Tucker as a rescue and he is full of energy.  The staff was so patient and kind to Tucker.  In fact, Tucker became the hotel "celebrity".  Everybody knew Tucker.  If staff needed to go into the room to clean or address a maintenance issue while I was gone and Tucker was in his kennel, extra staff would go to play with Tucker so he wouldn't be afraid.  I did have one maintenance issue while staff there (refrigerator wasn't cooling properly), and it was fixed within an hour.  The managers, front desk staff, maintenance team, housekeepers were all excellent.  I can't say enough good things about the place and I can assure you that I would staff there again if I go back to Ft Worth for an assignment.  I also would have no concerns recommending this hotel to my friends or family.More</t>
   </si>
   <si>
-    <t>homingpenguin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r391212282-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1191,6 @@
     <t>This was an excellent stay for my needs. My room was large and clean. Parking and wifi were included. I did have one issue with a noisy group in the grilling area of the parking lot late at night, but Bobby from the front desk handled the issue for me quickly. The hotel is also near a Target and several shops in the immediate area, but due to its location on a side street, road noise or traffic were not issues.Overall, this was an above average hotel in a good location.More</t>
   </si>
   <si>
-    <t>Carol H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r387269017-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1194,9 +1215,6 @@
     <t>You could not ask for better service.  The front desk staff gives your requests immediate attention.  Housekeeping is outstanding.  The atmosphere is for the most part quiet and relaxed.  The building and grounds are well maintained.  The pool is always in top shape.   Everyone on staff addresses me by name.  I feel safe and secure.More</t>
   </si>
   <si>
-    <t>asheyrae83</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r385945482-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1215,9 +1233,6 @@
     <t>I stayed in room 208 this time and couldn't have been happier. My first time at this location I was in a room on the 1st floor, and I wanted to try to get a room on the 1st floor again. Upon check in there were not any 1st floor rooms avail. I couldn't have been happier though. My room on the 2nd floor was even nicer then the last room I was in. Porscha had noted my requests on my folio prior to check in. Bobby made my ck in so pleasant! He made sure my requests were honored and the process was so fast! Thanks again for everything!More</t>
   </si>
   <si>
-    <t>Brenna W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r371429695-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1245,9 +1260,6 @@
     <t>We stayed here for two nights with two adults and one child. It's a good location, and its very quiet. The fridge had not been emptied by the last tenants before us, and there was no remote control for the TV. The floors were not very clean, and we had to use the sleeper couch and it was also pretty dirty. The floor in the bathroom was uneven and it took a really long time for the water to warm up. All in all, it's not a bad place to stay, we must have just arrived on an off day for them. More</t>
   </si>
   <si>
-    <t>Miguel R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r364974428-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1272,9 +1284,6 @@
     <t>This was my first time staying at ESA so, it is not for me.If you are looking to cook your own meals everyday and not go out at all, this is the place for you all to book.The hotel have kitchen utensils on demand, just ask for them, walk or drive to the super target located right behind the hotel and get your groceries for the week. Is you are not the stay in type of guy/ couple don't stay here.More</t>
   </si>
   <si>
-    <t>Crippledshark</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r364359760-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1299,9 +1308,6 @@
     <t>Originally we only expected to stay for 2-3 weeks but as most already know or will soon find out, the housing market (both rental and buying) is "red hot" right now. So we found ourselves looking at 6-8 weeks by the time we finally found a rental. We would not have made it that long if it was for the entire staff. I mean everyone who works there went way out of their way to accommodate us. James the maintenance dude became my friend, he helped me with my dog, physical needs (I am disabled) and all types of just good old fashioned friendship. Porsha (sp?) and Jeffrey and Bobby and James and Desire and Shelley or Windy (I can't remember everyone) and even the housekeeper swept up our dogs shedding coat. Listen, I don't want to get emotional here but if you need a home away from home the people at Extended Stay will bust their tails to make that happen.More</t>
   </si>
   <si>
-    <t>Geizelle B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r347203209-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1329,9 +1335,6 @@
     <t>Jesse was very courteous and timely. When I asked him to fix a FEW things in my room. He immediately filled out a work order and said he would get right to it and he did just THAT. He was at my room a few minutes later and EVERYTHING that needed repair, he had it done quickly. I rate his work and response a 10!!! More</t>
   </si>
   <si>
-    <t>LynnFromAustin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r343880597-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1359,9 +1362,6 @@
     <t>I always worry when I go to a hotel that I don't know but this one made me relax.  The staff was great, the place was clean and quiet. The kitchen quite adequate even though I didn't use it.   Unlike another reviewer, I did not smell food odors from other rooms coming into my room.  I love the hardwood floors and the heat/ac worked GREAT!  Yes, there is not an extensive breakfast, but they tell you that before you book.  All I usually have time for is something quick and they had that and instant oatmeal.  I would recommend this place.More</t>
   </si>
   <si>
-    <t>Lee_zell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r332278010-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1387,9 +1387,6 @@
   </si>
   <si>
     <t>What a pleasant surprise. I booked this hotel through hotwire and from my experience with this hotel it was great.I saw the name extended stay when I booked it and I got scared. From my experience with extended stay, I thought I was going to see pimps and other strange things in the hallways.This hotel was awesome. I told the front desk personal JEFF about my concerns about staying here and he assured me I had nothing to worry about. The room was nice and clean. The bed was comfortable. My only problem is the hot water wasn't really hot enough but ok to shower. I would give this stay and staff a 5 star. Just great. More</t>
-  </si>
-  <si>
-    <t>SmilingBig</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109116-r326776899-Extended_Stay_America_Fort_Worth_Southwest-Fort_Worth_Texas.html</t>
@@ -1921,112 +1918,110 @@
       <c r="A2" t="n">
         <v>36804</v>
       </c>
-      <c r="B2" t="n">
-        <v>22409</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36804</v>
       </c>
-      <c r="B3" t="n">
-        <v>136246</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2038,494 +2033,452 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36804</v>
       </c>
-      <c r="B4" t="n">
-        <v>136247</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
       <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36804</v>
       </c>
-      <c r="B5" t="n">
-        <v>22635</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36804</v>
       </c>
-      <c r="B6" t="n">
-        <v>136248</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36804</v>
       </c>
-      <c r="B7" t="n">
-        <v>49712</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
         <v>98</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>75</v>
-      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36804</v>
       </c>
-      <c r="B8" t="n">
-        <v>30667</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36804</v>
       </c>
-      <c r="B9" t="n">
-        <v>136249</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
         <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36804</v>
       </c>
-      <c r="B10" t="n">
-        <v>35657</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2535,60 +2488,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36804</v>
       </c>
-      <c r="B11" t="n">
-        <v>136250</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2600,356 +2549,326 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36804</v>
       </c>
-      <c r="B12" t="n">
-        <v>136251</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36804</v>
       </c>
-      <c r="B13" t="n">
-        <v>136252</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36804</v>
       </c>
-      <c r="B14" t="n">
-        <v>30214</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36804</v>
       </c>
-      <c r="B15" t="n">
-        <v>136253</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
         <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36804</v>
       </c>
-      <c r="B16" t="n">
-        <v>136254</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2961,1127 +2880,1091 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36804</v>
       </c>
-      <c r="B17" t="n">
-        <v>136255</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36804</v>
       </c>
-      <c r="B18" t="n">
-        <v>136256</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36804</v>
       </c>
-      <c r="B19" t="n">
-        <v>136257</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="X19" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36804</v>
       </c>
-      <c r="B20" t="n">
-        <v>136258</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36804</v>
       </c>
-      <c r="B21" t="n">
-        <v>136259</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="X21" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36804</v>
       </c>
-      <c r="B22" t="n">
-        <v>136260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>239</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="X22" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36804</v>
       </c>
-      <c r="B23" t="n">
-        <v>136261</v>
-      </c>
-      <c r="C23" t="s">
-        <v>248</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36804</v>
       </c>
-      <c r="B24" t="n">
-        <v>136262</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
       <c r="R24" t="n">
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36804</v>
       </c>
-      <c r="B25" t="n">
-        <v>136263</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36804</v>
       </c>
-      <c r="B26" t="n">
-        <v>136264</v>
-      </c>
-      <c r="C26" t="s">
-        <v>272</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36804</v>
       </c>
-      <c r="B27" t="n">
-        <v>136265</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36804</v>
       </c>
-      <c r="B28" t="n">
-        <v>136266</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36804</v>
       </c>
-      <c r="B29" t="n">
-        <v>11572</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s">
+        <v>282</v>
+      </c>
       <c r="Y29" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36804</v>
       </c>
-      <c r="B30" t="n">
-        <v>136267</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
       <c r="Y30" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36804</v>
       </c>
-      <c r="B31" t="n">
-        <v>136268</v>
-      </c>
-      <c r="C31" t="s">
-        <v>314</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="X31" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36804</v>
       </c>
-      <c r="B32" t="n">
-        <v>136269</v>
-      </c>
-      <c r="C32" t="s">
-        <v>323</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
@@ -4095,196 +3978,178 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36804</v>
       </c>
-      <c r="B33" t="n">
-        <v>65271</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
         <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>339</v>
-      </c>
-      <c r="O33" t="s">
-        <v>112</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
       </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36804</v>
       </c>
-      <c r="B34" t="n">
-        <v>35158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36804</v>
       </c>
-      <c r="B35" t="n">
-        <v>136270</v>
-      </c>
-      <c r="C35" t="s">
-        <v>350</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4295,68 +4160,62 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>356</v>
-      </c>
-      <c r="X35" t="s">
-        <v>357</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36804</v>
       </c>
-      <c r="B36" t="n">
-        <v>5101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>359</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>112</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4365,69 +4224,65 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="X36" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36804</v>
       </c>
-      <c r="B37" t="n">
-        <v>136271</v>
-      </c>
-      <c r="C37" t="s">
-        <v>369</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4436,129 +4291,125 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="X37" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36804</v>
       </c>
-      <c r="B38" t="n">
-        <v>24231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>379</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36804</v>
       </c>
-      <c r="B39" t="n">
-        <v>136272</v>
-      </c>
-      <c r="C39" t="s">
-        <v>388</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
@@ -4574,54 +4425,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36804</v>
       </c>
-      <c r="B40" t="n">
-        <v>136273</v>
-      </c>
-      <c r="C40" t="s">
-        <v>395</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4633,131 +4480,129 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="X40" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="Y40" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36804</v>
       </c>
-      <c r="B41" t="n">
-        <v>105741</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O41" t="s">
-        <v>112</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="X41" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="Y41" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36804</v>
       </c>
-      <c r="B42" t="n">
-        <v>136274</v>
-      </c>
-      <c r="C42" t="s">
-        <v>414</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4767,60 +4612,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="X42" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36804</v>
       </c>
-      <c r="B43" t="n">
-        <v>136275</v>
-      </c>
-      <c r="C43" t="s">
-        <v>423</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4832,131 +4673,119 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="X43" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="Y43" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36804</v>
       </c>
-      <c r="B44" t="n">
-        <v>136276</v>
-      </c>
-      <c r="C44" t="s">
-        <v>433</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
       <c r="I44" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="J44" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>440</v>
-      </c>
-      <c r="X44" t="s">
-        <v>441</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36804</v>
       </c>
-      <c r="B45" t="n">
-        <v>136277</v>
-      </c>
-      <c r="C45" t="s">
-        <v>443</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
       <c r="I45" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="J45" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="K45" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4968,82 +4797,393 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="X45" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="Y45" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36804</v>
       </c>
-      <c r="B46" t="n">
-        <v>136278</v>
-      </c>
-      <c r="C46" t="s">
-        <v>453</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>459</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
+        <v>415</v>
+      </c>
+      <c r="X46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36804</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>418</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>419</v>
+      </c>
+      <c r="J47" t="s">
+        <v>420</v>
+      </c>
+      <c r="K47" t="s">
+        <v>421</v>
+      </c>
+      <c r="L47" t="s">
+        <v>422</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>423</v>
+      </c>
+      <c r="X47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36804</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>432</v>
+      </c>
+      <c r="X48" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36804</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>108</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36804</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>449</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>450</v>
+      </c>
+      <c r="X50" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36804</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>454</v>
+      </c>
+      <c r="J51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51" t="s">
+        <v>456</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>458</v>
+      </c>
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>459</v>
+      </c>
+      <c r="X51" t="s">
         <v>460</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y51" t="s">
         <v>461</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
